--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 1484-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 1484-2020.xlsx", "A 1484-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 1484-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 1484-2020.png", "A 1484-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 1484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 1484-2020.docx", "A 1484-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 1484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 1484-2020.docx", "A 1484-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 1484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 1484-2020.docx", "A 1484-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 1484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 1484-2020.docx", "A 1484-2020")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 28254-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 28254-2023.xlsx", "A 28254-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 28254-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 28254-2023.png", "A 28254-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 28254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 28254-2023.docx", "A 28254-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 28254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 28254-2023.docx", "A 28254-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 28254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 28254-2023.docx", "A 28254-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 28254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 28254-2023.docx", "A 28254-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 12865-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 12865-2022.xlsx", "A 12865-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 12865-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 12865-2022.png", "A 12865-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 12865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 12865-2022.docx", "A 12865-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 12865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 12865-2022.docx", "A 12865-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 12865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 12865-2022.docx", "A 12865-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 12865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 12865-2022.docx", "A 12865-2022")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 1486-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 1486-2020.xlsx", "A 1486-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 1486-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 1486-2020.png", "A 1486-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 1486-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 1486-2020.docx", "A 1486-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 1486-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 1486-2020.docx", "A 1486-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 1486-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 1486-2020.docx", "A 1486-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 1486-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 1486-2020.docx", "A 1486-2020")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,27 +991,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 27439-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 27439-2020.xlsx", "A 27439-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 27439-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 27439-2020.png", "A 27439-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 27439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 27439-2020.docx", "A 27439-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 27439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 27439-2020.docx", "A 27439-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 27439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 27439-2020.docx", "A 27439-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 27439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 27439-2020.docx", "A 27439-2020")</f>
         <v/>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1077,27 +1077,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 12658-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 12658-2023.xlsx", "A 12658-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 12658-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 12658-2023.png", "A 12658-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 12658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 12658-2023.docx", "A 12658-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 12658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 12658-2023.docx", "A 12658-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 12658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 12658-2023.docx", "A 12658-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 12658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 12658-2023.docx", "A 12658-2023")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,27 +1163,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 23423-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 23423-2023.xlsx", "A 23423-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 23423-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 23423-2023.png", "A 23423-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 23423-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 23423-2023.docx", "A 23423-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 23423-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 23423-2023.docx", "A 23423-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 23423-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 23423-2023.docx", "A 23423-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 23423-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 23423-2023.docx", "A 23423-2023")</f>
         <v/>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,27 +1248,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 15590-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 15590-2019.xlsx", "A 15590-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 15590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 15590-2019.png", "A 15590-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 15590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 15590-2019.docx", "A 15590-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 15590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 15590-2019.docx", "A 15590-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 15590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 15590-2019.docx", "A 15590-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 15590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 15590-2019.docx", "A 15590-2019")</f>
         <v/>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1338,27 +1338,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 48181-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 48181-2019.xlsx", "A 48181-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 48181-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 48181-2019.png", "A 48181-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 48181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 48181-2019.docx", "A 48181-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 48181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 48181-2019.docx", "A 48181-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 48181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 48181-2019.docx", "A 48181-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 48181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 48181-2019.docx", "A 48181-2019")</f>
         <v/>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1423,27 +1423,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 41724-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 41724-2022.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 41724-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 41724-2022.png", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 41724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 41724-2022.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 41724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 41724-2022.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 41724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 41724-2022.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 41724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 41724-2022.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,27 +1508,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 23414-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 23414-2023.xlsx", "A 23414-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 23414-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 23414-2023.png", "A 23414-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 23414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 23414-2023.docx", "A 23414-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 23414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 23414-2023.docx", "A 23414-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 23414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 23414-2023.docx", "A 23414-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 23414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 23414-2023.docx", "A 23414-2023")</f>
         <v/>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1593,27 +1593,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 34450-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/artfynd/A 34450-2023.xlsx", "A 34450-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 34450-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/kartor/A 34450-2023.png", "A 34450-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 34450-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomål/A 34450-2023.docx", "A 34450-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 34450-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/klagomålsmail/A 34450-2023.docx", "A 34450-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 34450-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsyn/A 34450-2023.docx", "A 34450-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 34450-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTENE/tillsynsmail/A 34450-2023.docx", "A 34450-2023")</f>
         <v/>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -572,7 +572,7 @@
         <v>43843</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45099</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44642</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43843</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45076</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44827</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45139</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43490</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43515</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43521</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43521</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43542</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43543</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43543</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43564</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43669</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43689</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43698</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43712</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43748</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43790</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43794</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43796</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43832</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43846</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43853</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43867</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43873</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43894</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43907</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43929</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43978</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44048</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44057</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44113</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44139</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44151</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44151</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44167</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44169</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44169</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44180</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44204</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44214</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44214</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44224</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44224</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44231</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44237</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44243</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44257</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44355</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44355</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44365</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44475</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44507</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44566</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44566</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44586</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44628</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44638</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44645</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44645</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44663</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44757</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44816</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44844</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44914</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44967</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44974</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45011</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45034</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45036</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
